--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tgfb2</t>
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H2">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>479.4755172340421</v>
+        <v>560.8356761213934</v>
       </c>
       <c r="R2">
-        <v>4315.279655106378</v>
+        <v>5047.52108509254</v>
       </c>
       <c r="S2">
-        <v>0.06014664885617826</v>
+        <v>0.04090842183931226</v>
       </c>
       <c r="T2">
-        <v>0.06014664885617826</v>
+        <v>0.04090842183931226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H3">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>101.459544690322</v>
+        <v>118.7066947904645</v>
       </c>
       <c r="R3">
-        <v>913.135902212898</v>
+        <v>1068.36025311418</v>
       </c>
       <c r="S3">
-        <v>0.01272734767105489</v>
+        <v>0.00865869229151482</v>
       </c>
       <c r="T3">
-        <v>0.01272734767105489</v>
+        <v>0.00865869229151482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H4">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>15.572682236832</v>
+        <v>21.83456052086667</v>
       </c>
       <c r="R4">
-        <v>140.154140131488</v>
+        <v>196.5110446878</v>
       </c>
       <c r="S4">
-        <v>0.001953477532389591</v>
+        <v>0.001592654409293088</v>
       </c>
       <c r="T4">
-        <v>0.00195347753238959</v>
+        <v>0.001592654409293087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H5">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>15.294931748964</v>
+        <v>18.25736405275333</v>
       </c>
       <c r="R5">
-        <v>137.654385740676</v>
+        <v>164.31627647478</v>
       </c>
       <c r="S5">
-        <v>0.001918635792899325</v>
+        <v>0.001331726889254218</v>
       </c>
       <c r="T5">
-        <v>0.001918635792899325</v>
+        <v>0.001331726889254218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J6">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>3630.589124645822</v>
+        <v>3629.643696041785</v>
       </c>
       <c r="R6">
-        <v>32675.30212181239</v>
+        <v>32666.79326437606</v>
       </c>
       <c r="S6">
-        <v>0.4554304888825887</v>
+        <v>0.2647531206840318</v>
       </c>
       <c r="T6">
-        <v>0.4554304888825886</v>
+        <v>0.2647531206840317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J7">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
         <v>768.2517799222616</v>
@@ -883,10 +883,10 @@
         <v>6914.266019300353</v>
       </c>
       <c r="S7">
-        <v>0.09637149005371055</v>
+        <v>0.05603774729384325</v>
       </c>
       <c r="T7">
-        <v>0.09637149005371054</v>
+        <v>0.05603774729384323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J8">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>117.9163664012693</v>
+        <v>141.3099742485933</v>
       </c>
       <c r="R8">
-        <v>1061.247297611424</v>
+        <v>1271.78976823734</v>
       </c>
       <c r="S8">
-        <v>0.01479173394555559</v>
+        <v>0.01030741852344742</v>
       </c>
       <c r="T8">
-        <v>0.01479173394555558</v>
+        <v>0.01030741852344742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J9">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>115.813239412772</v>
+        <v>118.1588995883927</v>
       </c>
       <c r="R9">
-        <v>1042.319154714948</v>
+        <v>1063.430096295534</v>
       </c>
       <c r="S9">
-        <v>0.01452791225720991</v>
+        <v>0.008618735066676909</v>
       </c>
       <c r="T9">
-        <v>0.01452791225720991</v>
+        <v>0.008618735066676908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H10">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I10">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J10">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N10">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q10">
-        <v>2137.49003099435</v>
+        <v>6488.258962369679</v>
       </c>
       <c r="R10">
-        <v>19237.41027894915</v>
+        <v>58394.33066132711</v>
       </c>
       <c r="S10">
-        <v>0.2681322772629589</v>
+        <v>0.4732659599527079</v>
       </c>
       <c r="T10">
-        <v>0.2681322772629589</v>
+        <v>0.4732659599527079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H11">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I11">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J11">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q11">
-        <v>452.3041480320899</v>
+        <v>1373.307386031559</v>
       </c>
       <c r="R11">
-        <v>4070.737332288809</v>
+        <v>12359.76647428403</v>
       </c>
       <c r="S11">
-        <v>0.0567382020354542</v>
+        <v>0.1001716550048112</v>
       </c>
       <c r="T11">
-        <v>0.05673820203545421</v>
+        <v>0.1001716550048112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H12">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I12">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J12">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N12">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q12">
-        <v>69.42263335798934</v>
+        <v>252.60212397446</v>
       </c>
       <c r="R12">
-        <v>624.803700221904</v>
+        <v>2273.41911577014</v>
       </c>
       <c r="S12">
-        <v>0.00870855466268995</v>
+        <v>0.01842527978340799</v>
       </c>
       <c r="T12">
-        <v>0.00870855466268995</v>
+        <v>0.01842527978340799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.664466</v>
+      </c>
+      <c r="H13">
+        <v>88.993398</v>
+      </c>
+      <c r="I13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="J13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.120231</v>
+      </c>
+      <c r="N13">
+        <v>21.360693</v>
+      </c>
+      <c r="O13">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="P13">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="Q13">
+        <v>211.217850411646</v>
+      </c>
+      <c r="R13">
+        <v>1900.960653704814</v>
+      </c>
+      <c r="S13">
+        <v>0.01540663208943596</v>
+      </c>
+      <c r="T13">
+        <v>0.01540663208943595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.770107666666666</v>
-      </c>
-      <c r="H13">
-        <v>29.310323</v>
-      </c>
-      <c r="I13">
-        <v>0.342132265008413</v>
-      </c>
-      <c r="J13">
-        <v>0.3421322650084131</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.978882</v>
-      </c>
-      <c r="N13">
-        <v>20.936646</v>
-      </c>
-      <c r="O13">
-        <v>0.02499977909741928</v>
-      </c>
-      <c r="P13">
-        <v>0.02499977909741927</v>
-      </c>
-      <c r="Q13">
-        <v>68.18442853296199</v>
-      </c>
-      <c r="R13">
-        <v>613.659856796658</v>
-      </c>
-      <c r="S13">
-        <v>0.008553231047310038</v>
-      </c>
-      <c r="T13">
-        <v>0.008553231047310038</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.025497</v>
+      </c>
+      <c r="H14">
+        <v>0.076491</v>
+      </c>
+      <c r="I14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>218.721583</v>
+      </c>
+      <c r="N14">
+        <v>656.164749</v>
+      </c>
+      <c r="O14">
+        <v>0.7793342808141792</v>
+      </c>
+      <c r="P14">
+        <v>0.7793342808141792</v>
+      </c>
+      <c r="Q14">
+        <v>5.576744201751</v>
+      </c>
+      <c r="R14">
+        <v>50.190697815759</v>
+      </c>
+      <c r="S14">
+        <v>0.0004067783381273135</v>
+      </c>
+      <c r="T14">
+        <v>0.0004067783381273135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.025497</v>
+      </c>
+      <c r="H15">
+        <v>0.076491</v>
+      </c>
+      <c r="I15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.29469433333333</v>
+      </c>
+      <c r="N15">
+        <v>138.884083</v>
+      </c>
+      <c r="O15">
+        <v>0.164954193449581</v>
+      </c>
+      <c r="P15">
+        <v>0.164954193449581</v>
+      </c>
+      <c r="Q15">
+        <v>1.180375821417</v>
+      </c>
+      <c r="R15">
+        <v>10.623382392753</v>
+      </c>
+      <c r="S15">
+        <v>8.609885941171745E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.609885941171745E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.515309999999999</v>
+      </c>
+      <c r="N16">
+        <v>25.54593</v>
+      </c>
+      <c r="O16">
+        <v>0.03034118948727519</v>
+      </c>
+      <c r="P16">
+        <v>0.03034118948727519</v>
+      </c>
+      <c r="Q16">
+        <v>0.21711485907</v>
+      </c>
+      <c r="R16">
+        <v>1.95403373163</v>
+      </c>
+      <c r="S16">
+        <v>1.583677112669258E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.583677112669257E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.025497</v>
+      </c>
+      <c r="H17">
+        <v>0.076491</v>
+      </c>
+      <c r="I17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.120231</v>
+      </c>
+      <c r="N17">
+        <v>21.360693</v>
+      </c>
+      <c r="O17">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="P17">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="Q17">
+        <v>0.181544529807</v>
+      </c>
+      <c r="R17">
+        <v>1.633900768263</v>
+      </c>
+      <c r="S17">
+        <v>1.324220359754154E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.324220359754153E-05</v>
       </c>
     </row>
   </sheetData>
